--- a/medicine/Enfance/Le_chat_et_la_souris_voyagent_dans_l'espace/Le_chat_et_la_souris_voyagent_dans_l'espace.xlsx
+++ b/medicine/Enfance/Le_chat_et_la_souris_voyagent_dans_l'espace/Le_chat_et_la_souris_voyagent_dans_l'espace.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_chat_et_la_souris_voyagent_dans_l%27espace</t>
+          <t>Le_chat_et_la_souris_voyagent_dans_l'espace</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le chat et la souris voyagent dans l'espace est un conte de littérature d'enfance et de jeunesse écrit par Henriette Bichonnier, illustré par Pierre Cornuel. Publié en 1983 dans la collection Lecteurs en herbe des éditions Grasset, et réédité en 2003 dans la collection Lampe de Poche des éditions Grasset.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_chat_et_la_souris_voyagent_dans_l%27espace</t>
+          <t>Le_chat_et_la_souris_voyagent_dans_l'espace</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Les personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le chat
 La souris
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_chat_et_la_souris_voyagent_dans_l%27espace</t>
+          <t>Le_chat_et_la_souris_voyagent_dans_l'espace</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chat et la souris, animaux turbulents, dérangent tous les animaux de la ferme qui les envoient « promener ». Vexés, le chat et la souris décident de construire un engin spatial à partir d'un ventilateur, d'un aspirateur, d'un pédalier de vélo, d'un cerf-volant, et autre matériel fantaisiste. L'appareil marche, donc les deux vont pouvoir aller jouer sur une planète où on ne les houspille pas. Mais tout n'est pas si simple, car le chat et la souris aiment la compagnie des animaux de la ferme.
 </t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_chat_et_la_souris_voyagent_dans_l%27espace</t>
+          <t>Le_chat_et_la_souris_voyagent_dans_l'espace</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Exploitation pédagogique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les animaux de la ferme : chat, souris, vache, âne, poule, canard, cochon
 La lune
